--- a/schuldenreport_vorlage.xlsx
+++ b/schuldenreport_vorlage.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:W197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,57 +385,92 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>extraktivismus</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>fragilitaet</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>problematische_schuldenstruktur</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>vulnerabilitaet_naturkatastrophen</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>zahlungssituation</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>oeffentliche_schulden_bip</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>trend_oe_schulden_bip</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>oeffentliche_schulden_staatseinnahmen</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>trend_oe_schulden_staat</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>auslandsschulden_bip</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>trend_ausl_bip</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>auslandsschuldenstand_exporteinnahmen</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>trend_aus_schuldenstand_export</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>auslandsschuldendienst_exporteinnahmen</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>trend_ausl_schuldendienst_export</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>iwf_einschaetzung</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>extraktivismus</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>fragilitaet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>problematische_schuldenstruktur</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>vulnerabilitaet_naturkatastrophen</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>zahlungssituation</t>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -479,6 +514,16 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/afghanistan/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +547,16 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/angola/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -525,6 +580,16 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/albanien/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -566,6 +631,16 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/argentinien/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -589,6 +664,16 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/armenien/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -612,6 +697,16 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/antigua-barbuda/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -689,6 +784,16 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/burundi/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -730,6 +835,16 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/benin/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -753,6 +868,16 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/burkina-faso/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -776,6 +901,16 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bangladesch/</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -817,6 +952,16 @@
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bahrain/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -840,6 +985,16 @@
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bahamas/</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -863,6 +1018,16 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bosnien-herzigowina/</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -886,6 +1051,16 @@
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/weissrussland/</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -909,6 +1084,16 @@
       <c r="E23">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/belize/</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -932,6 +1117,16 @@
       <c r="E24">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bolivien/</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -955,6 +1150,16 @@
       <c r="E25">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/brasilien/</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -978,6 +1183,16 @@
       <c r="E26">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/barbados/</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1019,6 +1234,16 @@
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bhutan/</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1037,6 +1262,11 @@
       <c r="E29">
         <v>0</v>
       </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aserbaidschan/</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1060,6 +1290,16 @@
       <c r="E30">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/zentralafrikanische-republik/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1137,6 +1377,16 @@
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/china/</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1160,6 +1410,16 @@
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/elfenbeinkueste/</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1183,6 +1443,16 @@
       <c r="E36">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kamerun/</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1206,6 +1476,16 @@
       <c r="E37">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kongo-d-r/</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1229,6 +1509,16 @@
       <c r="E38">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/republik-kongo/</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1252,6 +1542,16 @@
       <c r="E39">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kolumbien/</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1275,6 +1575,16 @@
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/komoren/</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1298,6 +1608,16 @@
       <c r="E41">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/cabo-verde/</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1321,6 +1641,16 @@
       <c r="E42">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/costa-rica/</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1416,6 +1746,16 @@
       <c r="E47">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dschibuti/</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1439,6 +1779,16 @@
       <c r="E48">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dominica/</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1480,6 +1830,16 @@
       <c r="E50">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dominikanische-republik/</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1498,6 +1858,11 @@
       <c r="E51">
         <v>0</v>
       </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/algerien/</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1521,6 +1886,16 @@
       <c r="E52">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ecuador/</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1544,6 +1919,16 @@
       <c r="E53">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aegypten/</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1567,6 +1952,16 @@
       <c r="E54">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/eritrea/</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1626,6 +2021,16 @@
       <c r="E57">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aethiopien/</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1662,6 +2067,11 @@
       <c r="E59">
         <v>0</v>
       </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/fidschi/</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1703,6 +2113,16 @@
       <c r="E61">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mikronesien/</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1726,6 +2146,16 @@
       <c r="E62">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/gabun/</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1767,6 +2197,16 @@
       <c r="E64">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/georgien/</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1790,6 +2230,16 @@
       <c r="E65">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ghana/</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1813,6 +2263,16 @@
       <c r="E66">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guinea/</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1836,6 +2296,16 @@
       <c r="E67">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/gambia/</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1859,6 +2329,16 @@
       <c r="E68">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guinea-bissau/</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1877,6 +2357,11 @@
       <c r="E69">
         <v>0</v>
       </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aequatorialguinea/</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1918,6 +2403,16 @@
       <c r="E71">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/grenada/</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1941,6 +2436,16 @@
       <c r="E72">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guatemala/</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1964,6 +2469,16 @@
       <c r="E73">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guyana/</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2005,6 +2520,16 @@
       <c r="E75">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/honduras/</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2046,6 +2571,16 @@
       <c r="E77">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/haiti/</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2087,6 +2622,16 @@
       <c r="E79">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/indonesien/</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2110,6 +2655,16 @@
       <c r="E80">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/indien/</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2151,6 +2706,16 @@
       <c r="E82">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/iran/</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2169,6 +2734,11 @@
       <c r="E83">
         <v>0</v>
       </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/irak/</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2246,6 +2816,16 @@
       <c r="E87">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jamaika/</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2269,6 +2849,16 @@
       <c r="E88">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jordanien/</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2310,6 +2900,16 @@
       <c r="E90">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kasachstan/</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2333,6 +2933,16 @@
       <c r="E91">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kenia/</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2356,6 +2966,16 @@
       <c r="E92">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kirgisistan/</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2379,6 +2999,16 @@
       <c r="E93">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kambodscha/</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2402,6 +3032,16 @@
       <c r="E94">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kiribati/</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2425,6 +3065,16 @@
       <c r="E95">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st.-kitts-nevis/</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2484,6 +3134,16 @@
       <c r="E98">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/laos/</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2507,6 +3167,16 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/libanon/</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2530,6 +3200,16 @@
       <c r="E100">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/liberia/</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2571,6 +3251,16 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st-lucia/</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2594,6 +3284,16 @@
       <c r="E103">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sri-lanka/</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2612,6 +3312,11 @@
       <c r="E104">
         <v>0</v>
       </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/lesotho/</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2707,6 +3412,16 @@
       <c r="E109">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/marokko/</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2730,6 +3445,16 @@
       <c r="E110">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/moldau/</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2753,6 +3478,16 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/madagaskar/</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2776,6 +3511,16 @@
       <c r="E112">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/malediven/</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2799,6 +3544,16 @@
       <c r="E113">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mexiko/</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2822,6 +3577,16 @@
       <c r="E114">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/marshallinseln/</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2845,6 +3610,16 @@
       <c r="E115">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mazedonien/</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2868,6 +3643,16 @@
       <c r="E116">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mali/</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2909,6 +3694,16 @@
       <c r="E118">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/myanmar/</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2932,6 +3727,16 @@
       <c r="E119">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/montenegro/</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2955,6 +3760,16 @@
       <c r="E120">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mongolei/</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2978,6 +3793,16 @@
       <c r="E121">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mosambik/</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3001,6 +3826,16 @@
       <c r="E122">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mauretanien/</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3024,6 +3859,16 @@
       <c r="E123">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mauritius/</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3047,6 +3892,16 @@
       <c r="E124">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/malawi/</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3070,6 +3925,16 @@
       <c r="E125">
         <v>0</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/malaysia/</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3093,6 +3958,16 @@
       <c r="E126">
         <v>0</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/namibia/</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3116,6 +3991,16 @@
       <c r="E127">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/niger/</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3139,6 +4024,16 @@
       <c r="E128">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nigeria/</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3162,6 +4057,16 @@
       <c r="E129">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nicaragua/</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3216,6 +4121,11 @@
       <c r="E132">
         <v>0</v>
       </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nepal/</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3239,6 +4149,11 @@
       <c r="E133">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3280,6 +4195,11 @@
       <c r="E135">
         <v>0</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3303,6 +4223,16 @@
       <c r="E136">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/pakistan/</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3326,6 +4256,16 @@
       <c r="E137">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/panama/</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3349,6 +4289,16 @@
       <c r="E138">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/peru/</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3367,6 +4317,11 @@
       <c r="E139">
         <v>0</v>
       </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/philippinen/</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3408,6 +4363,16 @@
       <c r="E141">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/papua-neuguinea/</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3503,6 +4468,16 @@
       <c r="E146">
         <v>0</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/paraguay/</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3539,6 +4514,11 @@
       <c r="E148">
         <v>0</v>
       </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kosovo/</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3598,6 +4578,16 @@
       <c r="E151">
         <v>0</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ruanda/</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3639,6 +4629,16 @@
       <c r="E153">
         <v>0</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sudan/</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3662,6 +4662,16 @@
       <c r="E154">
         <v>0</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/senegal/</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3685,6 +4695,11 @@
       <c r="E155">
         <v>0</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3703,6 +4718,11 @@
       <c r="E156">
         <v>0</v>
       </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/salomonen/</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3726,6 +4746,16 @@
       <c r="E157">
         <v>0</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sierra-leone/</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3749,6 +4779,16 @@
       <c r="E158">
         <v>0</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/el-salvador/</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3785,6 +4825,11 @@
       <c r="E160">
         <v>1</v>
       </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/somalia/</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3808,6 +4853,16 @@
       <c r="E161">
         <v>0</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/serbien/</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3831,6 +4886,16 @@
       <c r="E162">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/suedsudan/</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3854,6 +4919,16 @@
       <c r="E163">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sao-tome-principe/</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3877,6 +4952,16 @@
       <c r="E164">
         <v>0</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/surinam/</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3949,6 +5034,11 @@
       <c r="E168">
         <v>0</v>
       </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/swasiland/</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3972,6 +5062,16 @@
       <c r="E169">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/seychellen/</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3990,6 +5090,11 @@
       <c r="E170">
         <v>1</v>
       </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/syrien/</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4013,6 +5118,16 @@
       <c r="E171">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tschad/</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4036,6 +5151,16 @@
       <c r="E172">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/togo/</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4054,6 +5179,11 @@
       <c r="E173">
         <v>0</v>
       </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/thailand/</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4077,6 +5207,16 @@
       <c r="E174">
         <v>0</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tadschikistan/</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4100,6 +5240,11 @@
       <c r="E175">
         <v>0</v>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4118,6 +5263,11 @@
       <c r="E176">
         <v>0</v>
       </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ost-timor/</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4141,6 +5291,16 @@
       <c r="E177">
         <v>0</v>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tonga/</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4159,6 +5319,11 @@
       <c r="E178">
         <v>0</v>
       </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/trinidad-tobago/</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4182,6 +5347,16 @@
       <c r="E179">
         <v>0</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tunesien/</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4205,6 +5380,16 @@
       <c r="E180">
         <v>0</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tuerkei/</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4228,6 +5413,16 @@
       <c r="E181">
         <v>0</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tuvalu/</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4251,6 +5446,16 @@
       <c r="E182">
         <v>0</v>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/taiwan/</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4274,6 +5479,16 @@
       <c r="E183">
         <v>0</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tansania/</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4297,6 +5512,16 @@
       <c r="E184">
         <v>0</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/uganda/</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4320,6 +5545,16 @@
       <c r="E185">
         <v>0</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ukraine/</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4343,6 +5578,16 @@
       <c r="E186">
         <v>0</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/uruguay/</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4379,6 +5624,11 @@
       <c r="E188">
         <v>0</v>
       </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/usbekistan/</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4402,6 +5652,16 @@
       <c r="E189">
         <v>0</v>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st-vincent/</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4425,6 +5685,16 @@
       <c r="E190">
         <v>0</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/venezuela/</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4448,6 +5718,16 @@
       <c r="E191">
         <v>0</v>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/vietnam/</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4471,6 +5751,16 @@
       <c r="E192">
         <v>0</v>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/vanuatu/</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4494,6 +5784,16 @@
       <c r="E193">
         <v>0</v>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/samoa/</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4517,6 +5817,16 @@
       <c r="E194">
         <v>0</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jemen/</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4540,6 +5850,16 @@
       <c r="E195">
         <v>0</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/suedafrika/</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4563,6 +5883,16 @@
       <c r="E196">
         <v>0</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sambia/</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4585,6 +5915,16 @@
       </c>
       <c r="E197">
         <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/simbabwe/</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/schuldenreport_vorlage.xlsx
+++ b/schuldenreport_vorlage.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W197"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,6 +491,18 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,6 +526,18 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>l</t>
@@ -547,6 +571,18 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>lm</t>
@@ -580,6 +616,18 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>um</t>
@@ -608,6 +656,18 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -631,6 +691,21 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>um</t>
@@ -664,6 +739,18 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>um</t>
@@ -678,104 +765,147 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>ATA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Antigua und Barbuda</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Antarktis</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/antigua-barbuda/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Australien</t>
+          <t>Antigua und Barbuda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/antigua-barbuda/</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Österreich</t>
+          <t>Australien</t>
         </is>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aserbaidschan</t>
+          <t>Österreich</t>
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Burundi</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Aserbaidschan</t>
         </is>
       </c>
       <c r="D13">
@@ -784,77 +914,103 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/burundi/</t>
-        </is>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BDI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Belgien</t>
+          <t>Burundi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/burundi/</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Benin</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Belgien</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/benin/</t>
-        </is>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -868,6 +1024,18 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>l</t>
@@ -875,24 +1043,24 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/burkina-faso/</t>
+          <t>https://erlassjahr.de/laenderinfos/benin/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bangladesch</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D17">
@@ -901,82 +1069,118 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/bangladesch/</t>
+          <t>https://erlassjahr.de/laenderinfos/burkina-faso/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bulgarien</t>
+          <t>Bangladesch</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bangladesch/</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bahrain</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Bulgarien</t>
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bahrain/</t>
-        </is>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D20">
@@ -985,6 +1189,18 @@
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>h</t>
@@ -992,24 +1208,24 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/bahamas/</t>
+          <t>https://erlassjahr.de/laenderinfos/bahrain/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bosnien und Herzegowina</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D21">
@@ -1018,26 +1234,38 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>h</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/bosnien-herzigowina/</t>
+          <t>https://erlassjahr.de/laenderinfos/bahamas/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Weißrussland</t>
+          <t>Bosnien und Herzegowina</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1051,6 +1279,18 @@
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>um</t>
@@ -1058,24 +1298,24 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/weissrussland/</t>
+          <t>https://erlassjahr.de/laenderinfos/bosnien-herzigowina/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Weißrussland</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D23">
@@ -1084,6 +1324,18 @@
       <c r="E23">
         <v>0</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>um</t>
@@ -1091,19 +1343,19 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/belize/</t>
+          <t>https://erlassjahr.de/laenderinfos/weissrussland/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bolivien</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1117,26 +1369,38 @@
       <c r="E24">
         <v>0</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/bolivien/</t>
+          <t>https://erlassjahr.de/laenderinfos/belize/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brasilien</t>
+          <t>Bolivien</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1150,26 +1414,38 @@
       <c r="E25">
         <v>0</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/brasilien/</t>
+          <t>https://erlassjahr.de/laenderinfos/bolivien/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Brasilien</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1183,26 +1459,43 @@
       <c r="E26">
         <v>0</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/barbados/</t>
+          <t>https://erlassjahr.de/laenderinfos/brasilien/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Barbados</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D27">
@@ -1210,22 +1503,39 @@
       </c>
       <c r="E27">
         <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/barbados/</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bhutan</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D28">
@@ -1234,26 +1544,33 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bhutan/</t>
-        </is>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Bhutan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D29">
@@ -1262,26 +1579,38 @@
       <c r="E29">
         <v>0</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/aserbaidschan/</t>
+          <t>https://erlassjahr.de/laenderinfos/bhutan/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zentralafrikanische Republik</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="D30">
@@ -1290,118 +1619,173 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/zentralafrikanische-republik/</t>
+          <t>https://erlassjahr.de/laenderinfos/aserbaidschan/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>Zentralafrikanische Republik</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/zentralafrikanische-republik/</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Schweiz</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Schweiz</t>
         </is>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/china/</t>
-        </is>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Elfenbeinküste</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D35">
@@ -1410,26 +1794,38 @@
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/elfenbeinkueste/</t>
+          <t>https://erlassjahr.de/laenderinfos/china/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kamerun</t>
+          <t>Elfenbeinküste</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1443,6 +1839,18 @@
       <c r="E36">
         <v>0</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>lm</t>
@@ -1450,19 +1858,19 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kamerun/</t>
+          <t>https://erlassjahr.de/laenderinfos/elfenbeinkueste/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Demokratische Republik Kongo</t>
+          <t>Kamerun</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1476,26 +1884,38 @@
       <c r="E37">
         <v>0</v>
       </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kongo-d-r/</t>
+          <t>https://erlassjahr.de/laenderinfos/kamerun/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kongo</t>
+          <t>Demokratische Republik Kongo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1509,31 +1929,43 @@
       <c r="E38">
         <v>0</v>
       </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/republik-kongo/</t>
+          <t>https://erlassjahr.de/laenderinfos/kongo-d-r/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kolumbien</t>
+          <t>Kongo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D39">
@@ -1542,31 +1974,46 @@
       <c r="E39">
         <v>0</v>
       </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kolumbien/</t>
+          <t>https://erlassjahr.de/laenderinfos/republik-kongo/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Komoren</t>
+          <t>Kolumbien</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D40">
@@ -1575,26 +2022,38 @@
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/komoren/</t>
+          <t>https://erlassjahr.de/laenderinfos/kolumbien/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>COM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Komoren</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1608,6 +2067,18 @@
       <c r="E41">
         <v>0</v>
       </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>lm</t>
@@ -1615,24 +2086,24 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/cabo-verde/</t>
+          <t>https://erlassjahr.de/laenderinfos/komoren/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D42">
@@ -1641,136 +2112,211 @@
       <c r="E42">
         <v>0</v>
       </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/costa-rica/</t>
+          <t>https://erlassjahr.de/laenderinfos/cabo-verde/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kuba</t>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/costa-rica/</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zypern</t>
+          <t>Kuba</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tschechische Republik</t>
+          <t>Zypern</t>
         </is>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Tschechische Republik</t>
         </is>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dschibuti</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/dschibuti/</t>
-        </is>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Dschibuti</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D48">
@@ -1779,77 +2325,118 @@
       <c r="E48">
         <v>0</v>
       </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/dominica/</t>
+          <t>https://erlassjahr.de/laenderinfos/dschibuti/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DMA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dänemark</t>
+          <t>Dominica</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dominica/</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dominikanische Republik</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Dänemark</t>
         </is>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/dominikanische-republik/</t>
-        </is>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Algerien</t>
+          <t>Dominikanische Republik</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D51">
@@ -1858,26 +2445,38 @@
       <c r="E51">
         <v>0</v>
       </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/algerien/</t>
+          <t>https://erlassjahr.de/laenderinfos/dominikanische-republik/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Algerien</t>
         </is>
       </c>
       <c r="D52">
@@ -1886,31 +2485,38 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/ecuador/</t>
+          <t>https://erlassjahr.de/laenderinfos/algerien/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ägypten</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D53">
@@ -1919,31 +2525,43 @@
       <c r="E53">
         <v>0</v>
       </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/aegypten/</t>
+          <t>https://erlassjahr.de/laenderinfos/ecuador/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Ägypten</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D54">
@@ -1952,192 +2570,291 @@
       <c r="E54">
         <v>0</v>
       </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/eritrea/</t>
+          <t>https://erlassjahr.de/laenderinfos/aegypten/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Spanien</t>
+          <t>Eritrea</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/eritrea/</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Estland</t>
+          <t>Spanien</t>
         </is>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Äthiopien</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Estland</t>
         </is>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/aethiopien/</t>
-        </is>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Finnland</t>
+          <t>Äthiopien</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aethiopien/</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fidschi</t>
+          <t>Finnland</t>
         </is>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/fidschi/</t>
-        </is>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Frankreich</t>
+          <t>Fidschi</t>
         </is>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/fidschi/</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mikronesien</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Frankreich</t>
         </is>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mikronesien/</t>
-        </is>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gabun</t>
+          <t>Mikronesien</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D62">
@@ -2146,82 +2863,118 @@
       <c r="E62">
         <v>0</v>
       </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/gabun/</t>
+          <t>https://erlassjahr.de/laenderinfos/mikronesien/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Großbritannien</t>
+          <t>Gabun</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/gabun/</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Georgien</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>Großbritannien</t>
         </is>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/georgien/</t>
-        </is>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Georgien</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D65">
@@ -2230,26 +2983,38 @@
       <c r="E65">
         <v>0</v>
       </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/ghana/</t>
+          <t>https://erlassjahr.de/laenderinfos/georgien/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2263,26 +3028,38 @@
       <c r="E66">
         <v>0</v>
       </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/guinea/</t>
+          <t>https://erlassjahr.de/laenderinfos/ghana/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2296,6 +3073,18 @@
       <c r="E67">
         <v>0</v>
       </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>l</t>
@@ -2303,19 +3092,19 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/gambia/</t>
+          <t>https://erlassjahr.de/laenderinfos/guinea/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2329,6 +3118,21 @@
       <c r="E68">
         <v>0</v>
       </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>l</t>
@@ -2336,19 +3140,24 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/guinea-bissau/</t>
+          <t>https://erlassjahr.de/laenderinfos/gambia/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Äquatorialguinea</t>
+          <t>Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D69">
@@ -2357,72 +3166,103 @@
       <c r="E69">
         <v>0</v>
       </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/aequatorialguinea/</t>
+          <t>https://erlassjahr.de/laenderinfos/guinea-bissau/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Griechenland</t>
+          <t>Äquatorialguinea</t>
         </is>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aequatorialguinea/</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Grenada</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Griechenland</t>
         </is>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/grenada/</t>
-        </is>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2436,6 +3276,21 @@
       <c r="E72">
         <v>0</v>
       </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>um</t>
@@ -2443,70 +3298,94 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/guatemala/</t>
+          <t>https://erlassjahr.de/laenderinfos/grenada/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>GRL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Guyana</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Grönland</t>
         </is>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/guyana/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hongkong</t>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guatemala/</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2520,44 +3399,68 @@
       <c r="E75">
         <v>0</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/honduras/</t>
+          <t>https://erlassjahr.de/laenderinfos/guyana/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kroatien</t>
+          <t>Hongkong</t>
         </is>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2571,49 +3474,73 @@
       <c r="E77">
         <v>0</v>
       </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/haiti/</t>
+          <t>https://erlassjahr.de/laenderinfos/honduras/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ungarn</t>
+          <t>Kroatien</t>
         </is>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Indonesien</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D79">
@@ -2622,82 +3549,118 @@
       <c r="E79">
         <v>0</v>
       </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/indonesien/</t>
+          <t>https://erlassjahr.de/laenderinfos/haiti/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Indien</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Ungarn</t>
         </is>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/indien/</t>
-        </is>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Irland</t>
+          <t>Indonesien</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/indonesien/</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Indien</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D82">
@@ -2706,192 +3669,291 @@
       <c r="E82">
         <v>0</v>
       </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/iran/</t>
+          <t>https://erlassjahr.de/laenderinfos/indien/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Irak</t>
+          <t>Irland</t>
         </is>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/irak/</t>
-        </is>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/iran/</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Irak</t>
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/irak/</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Italien</t>
+          <t>Island</t>
         </is>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jamaika</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/jamaika/</t>
-        </is>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jordanien</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Italien</t>
         </is>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/jordanien/</t>
-        </is>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Jamaika</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jamaika/</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kasachstan</t>
+          <t>Jordanien</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D90">
@@ -2900,6 +3962,18 @@
       <c r="E90">
         <v>0</v>
       </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>um</t>
@@ -2907,52 +3981,49 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kasachstan/</t>
+          <t>https://erlassjahr.de/laenderinfos/jordanien/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kenia</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kenia/</t>
-        </is>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kirgisistan</t>
+          <t>Kasachstan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2966,31 +4037,43 @@
       <c r="E92">
         <v>0</v>
       </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kirgisistan/</t>
+          <t>https://erlassjahr.de/laenderinfos/kasachstan/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kambodscha</t>
+          <t>Kenia</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D93">
@@ -2999,6 +4082,18 @@
       <c r="E93">
         <v>0</v>
       </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>lm</t>
@@ -3006,24 +4101,24 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kambodscha/</t>
+          <t>https://erlassjahr.de/laenderinfos/kenia/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Kirgisistan</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D94">
@@ -3032,6 +4127,18 @@
       <c r="E94">
         <v>0</v>
       </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>lm</t>
@@ -3039,24 +4146,24 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kiribati/</t>
+          <t>https://erlassjahr.de/laenderinfos/kirgisistan/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>St. Kitts und Nevis</t>
+          <t>Kambodscha</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D95">
@@ -3065,44 +4172,91 @@
       <c r="E95">
         <v>0</v>
       </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/st.-kitts-nevis/</t>
+          <t>https://erlassjahr.de/laenderinfos/kambodscha/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Korea, Republik von</t>
+          <t>Kiribati</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kiribati/</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>St. Kitts und Nevis</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D97">
@@ -3110,55 +4264,69 @@
       </c>
       <c r="E97">
         <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st.-kitts-nevis/</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Demokratische Volksrepublik Laos</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Korea, Republik von</t>
         </is>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/laos/</t>
-        </is>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Libanon</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="D99">
@@ -3167,31 +4335,33 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/libanon/</t>
-        </is>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Demokratische Volksrepublik Laos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D100">
@@ -3200,49 +4370,88 @@
       <c r="E100">
         <v>0</v>
       </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/liberia/</t>
+          <t>https://erlassjahr.de/laenderinfos/laos/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Libyen</t>
+          <t>Libanon</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/libanon/</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D102">
@@ -3251,59 +4460,73 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/st-lucia/</t>
+          <t>https://erlassjahr.de/laenderinfos/liberia/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Libyen</t>
         </is>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sri-lanka/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Saint Lucia</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D104">
@@ -3312,164 +4535,243 @@
       <c r="E104">
         <v>0</v>
       </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/lesotho/</t>
+          <t>https://erlassjahr.de/laenderinfos/st-lucia/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Litauen</t>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sri-lanka/</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Luxemburg</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/lesotho/</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lettland</t>
+          <t>Litauen</t>
         </is>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Marokko</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Lettland</t>
         </is>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/marokko/</t>
-        </is>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Republik Moldau</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>Macao</t>
         </is>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/moldau/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Madagaskar</t>
+          <t>Marokko</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D111">
@@ -3478,31 +4780,43 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/madagaskar/</t>
+          <t>https://erlassjahr.de/laenderinfos/marokko/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Malediven</t>
+          <t>Republik Moldau</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D112">
@@ -3511,31 +4825,43 @@
       <c r="E112">
         <v>0</v>
       </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/malediven/</t>
+          <t>https://erlassjahr.de/laenderinfos/moldau/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Mexiko</t>
+          <t>Madagaskar</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D113">
@@ -3544,26 +4870,38 @@
       <c r="E113">
         <v>0</v>
       </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mexiko/</t>
+          <t>https://erlassjahr.de/laenderinfos/madagaskar/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Marshallinseln</t>
+          <t>Malediven</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3577,6 +4915,18 @@
       <c r="E114">
         <v>0</v>
       </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>um</t>
@@ -3584,24 +4934,24 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/marshallinseln/</t>
+          <t>https://erlassjahr.de/laenderinfos/malediven/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mazedonien</t>
+          <t>Mexiko</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D115">
@@ -3610,6 +4960,18 @@
       <c r="E115">
         <v>0</v>
       </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>um</t>
@@ -3617,24 +4979,24 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mazedonien/</t>
+          <t>https://erlassjahr.de/laenderinfos/mexiko/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Marshallinseln</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D116">
@@ -3643,49 +5005,88 @@
       <c r="E116">
         <v>0</v>
       </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mali/</t>
+          <t>https://erlassjahr.de/laenderinfos/marshallinseln/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Mazedonien</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mazedonien/</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D118">
@@ -3694,59 +5095,68 @@
       <c r="E118">
         <v>0</v>
       </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/myanmar/</t>
+          <t>https://erlassjahr.de/laenderinfos/mali/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/montenegro/</t>
-        </is>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mongolei</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3760,6 +5170,18 @@
       <c r="E120">
         <v>0</v>
       </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>lm</t>
@@ -3767,24 +5189,24 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mongolei/</t>
+          <t>https://erlassjahr.de/laenderinfos/myanmar/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mosambik</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D121">
@@ -3793,31 +5215,43 @@
       <c r="E121">
         <v>0</v>
       </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mosambik/</t>
+          <t>https://erlassjahr.de/laenderinfos/montenegro/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Mauretanien</t>
+          <t>Mongolei</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D122">
@@ -3826,6 +5260,18 @@
       <c r="E122">
         <v>0</v>
       </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>lm</t>
@@ -3833,19 +5279,19 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mauretanien/</t>
+          <t>https://erlassjahr.de/laenderinfos/mongolei/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mosambik</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3859,26 +5305,41 @@
       <c r="E123">
         <v>0</v>
       </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/mauritius/</t>
+          <t>https://erlassjahr.de/laenderinfos/mosambik/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauretanien</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3892,31 +5353,43 @@
       <c r="E124">
         <v>0</v>
       </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/malawi/</t>
+          <t>https://erlassjahr.de/laenderinfos/mauretanien/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D125">
@@ -3925,6 +5398,18 @@
       <c r="E125">
         <v>0</v>
       </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>um</t>
@@ -3932,19 +5417,19 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/malaysia/</t>
+          <t>https://erlassjahr.de/laenderinfos/mauritius/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3958,31 +5443,43 @@
       <c r="E126">
         <v>0</v>
       </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/namibia/</t>
+          <t>https://erlassjahr.de/laenderinfos/malawi/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D127">
@@ -3991,26 +5488,38 @@
       <c r="E127">
         <v>0</v>
       </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/niger/</t>
+          <t>https://erlassjahr.de/laenderinfos/malaysia/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4024,31 +5533,43 @@
       <c r="E128">
         <v>0</v>
       </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/nigeria/</t>
+          <t>https://erlassjahr.de/laenderinfos/namibia/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D129">
@@ -4057,136 +5578,228 @@
       <c r="E129">
         <v>0</v>
       </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/nicaragua/</t>
+          <t>https://erlassjahr.de/laenderinfos/niger/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Niederlande</t>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>0</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nigeria/</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Norwegen</t>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nicaragua/</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Niederlande</t>
         </is>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="W132" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/nepal/</t>
-        </is>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nauru</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Norwegen</t>
         </is>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Neuseeland</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nepal/</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D135">
@@ -4195,59 +5808,68 @@
       <c r="E135">
         <v>0</v>
       </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>um</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Neuseeland</t>
         </is>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W136" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/pakistan/</t>
-        </is>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D137">
@@ -4256,31 +5878,38 @@
       <c r="E137">
         <v>0</v>
       </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>h</t>
-        </is>
-      </c>
-      <c r="W137" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/panama/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D138">
@@ -4289,26 +5918,43 @@
       <c r="E138">
         <v>0</v>
       </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/peru/</t>
+          <t>https://erlassjahr.de/laenderinfos/pakistan/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Philippinen</t>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D139">
@@ -4317,21 +5963,43 @@
       <c r="E139">
         <v>0</v>
       </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/philippinen/</t>
+          <t>https://erlassjahr.de/laenderinfos/panama/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D140">
@@ -4339,22 +6007,39 @@
       </c>
       <c r="E140">
         <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/peru/</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Papua-Neuguinea</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Philippinen</t>
         </is>
       </c>
       <c r="D141">
@@ -4363,149 +6048,236 @@
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/papua-neuguinea/</t>
+          <t>https://erlassjahr.de/laenderinfos/philippinen/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Polen</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Papua-Neuguinea</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/papua-neuguinea/</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Korea, Demokratische Volksrepublik</t>
+          <t>Polen</t>
         </is>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PRK</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Korea, Demokratische Volksrepublik</t>
         </is>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W146" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/paraguay/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Katar</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RKS</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D148">
@@ -4514,39 +6286,68 @@
       <c r="E148">
         <v>0</v>
       </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/kosovo/</t>
+          <t>https://erlassjahr.de/laenderinfos/paraguay/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rumänien</t>
+          <t>Katar</t>
         </is>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>RKS</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Russische Föderation</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="D150">
@@ -4554,68 +6355,94 @@
       </c>
       <c r="E150">
         <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kosovo/</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ruanda</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Rumänien</t>
         </is>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W151" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/ruanda/</t>
-        </is>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Saudi Arabien</t>
+          <t>Russische Föderation</t>
         </is>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Ruanda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4629,31 +6456,38 @@
       <c r="E153">
         <v>0</v>
       </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/sudan/</t>
+          <t>https://erlassjahr.de/laenderinfos/ruanda/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Saudi Arabien</t>
         </is>
       </c>
       <c r="D154">
@@ -4662,31 +6496,33 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W154" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/senegal/</t>
-        </is>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Singapur</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D155">
@@ -4695,21 +6531,46 @@
       <c r="E155">
         <v>0</v>
       </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sudan/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Salomon-Inseln</t>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D156">
@@ -4718,26 +6579,43 @@
       <c r="E156">
         <v>0</v>
       </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/salomonen/</t>
+          <t>https://erlassjahr.de/laenderinfos/senegal/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D157">
@@ -4746,31 +6624,33 @@
       <c r="E157">
         <v>0</v>
       </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W157" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sierra-leone/</t>
+          <t>h</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Salomon-Inseln</t>
         </is>
       </c>
       <c r="D158">
@@ -4779,138 +6659,196 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/el-salvador/</t>
+          <t>https://erlassjahr.de/laenderinfos/salomonen/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Sierra Leone</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sierra-leone/</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/somalia/</t>
+          <t>https://erlassjahr.de/laenderinfos/el-salvador/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Serbien</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W161" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/serbien/</t>
-        </is>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Südsudan</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>3</v>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/suedsudan/</t>
+          <t>https://erlassjahr.de/laenderinfos/somalia/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sao Tome und Principe</t>
+          <t>Serbien</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D163">
@@ -4919,31 +6857,43 @@
       <c r="E163">
         <v>0</v>
       </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/sao-tome-principe/</t>
+          <t>https://erlassjahr.de/laenderinfos/serbien/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Surinam</t>
+          <t>Südsudan</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D164">
@@ -4952,159 +6902,256 @@
       <c r="E164">
         <v>0</v>
       </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/surinam/</t>
+          <t>https://erlassjahr.de/laenderinfos/suedsudan/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Slowakei</t>
+          <t>Sao Tome und Principe</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sao-tome-principe/</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Slowenien</t>
+          <t>Surinam</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>0</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/surinam/</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Schweden</t>
+          <t>Slowakei</t>
         </is>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Swasiland</t>
+          <t>Slowenien</t>
         </is>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="W168" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/swasiland/</t>
-        </is>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Seychellen</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Schweden</t>
         </is>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W169" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/seychellen/</t>
-        </is>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Syrische Arabische Republik</t>
+          <t>Swasiland</t>
         </is>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/syrien/</t>
+          <t>https://erlassjahr.de/laenderinfos/swasiland/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tschad</t>
+          <t>Seychellen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5118,59 +7165,81 @@
       <c r="E171">
         <v>0</v>
       </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>h</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/tschad/</t>
+          <t>https://erlassjahr.de/laenderinfos/seychellen/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Syrische Arabische Republik</t>
         </is>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>3</v>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/togo/</t>
+          <t>https://erlassjahr.de/laenderinfos/syrien/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tschad</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D173">
@@ -5179,26 +7248,43 @@
       <c r="E173">
         <v>0</v>
       </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/thailand/</t>
+          <t>https://erlassjahr.de/laenderinfos/tschad/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tadschikistan</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D174">
@@ -5207,6 +7293,18 @@
       <c r="E174">
         <v>0</v>
       </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>l</t>
@@ -5214,24 +7312,19 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/tadschikistan/</t>
+          <t>https://erlassjahr.de/laenderinfos/togo/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D175">
@@ -5240,21 +7333,38 @@
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>um</t>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/thailand/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tadschikistan</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D176">
@@ -5263,26 +7373,43 @@
       <c r="E176">
         <v>0</v>
       </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/ost-timor/</t>
+          <t>https://erlassjahr.de/laenderinfos/tadschikistan/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D177">
@@ -5291,26 +7418,33 @@
       <c r="E177">
         <v>0</v>
       </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>um</t>
-        </is>
-      </c>
-      <c r="W177" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tonga/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Trinidad und Tobago</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="D178">
@@ -5319,26 +7453,38 @@
       <c r="E178">
         <v>0</v>
       </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/trinidad-tobago/</t>
+          <t>https://erlassjahr.de/laenderinfos/ost-timor/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tunesien</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D179">
@@ -5347,31 +7493,38 @@
       <c r="E179">
         <v>0</v>
       </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/tunesien/</t>
+          <t>https://erlassjahr.de/laenderinfos/tonga/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Türkei</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>Trinidad und Tobago</t>
         </is>
       </c>
       <c r="D180">
@@ -5380,31 +7533,38 @@
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/tuerkei/</t>
+          <t>https://erlassjahr.de/laenderinfos/trinidad-tobago/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Tunesien</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D181">
@@ -5413,31 +7573,43 @@
       <c r="E181">
         <v>0</v>
       </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/tuvalu/</t>
+          <t>https://erlassjahr.de/laenderinfos/tunesien/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Türkei</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D182">
@@ -5446,31 +7618,43 @@
       <c r="E182">
         <v>0</v>
       </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/taiwan/</t>
+          <t>https://erlassjahr.de/laenderinfos/tuerkei/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tansania</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D183">
@@ -5479,31 +7663,43 @@
       <c r="E183">
         <v>0</v>
       </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/tansania/</t>
+          <t>https://erlassjahr.de/laenderinfos/tuvalu/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TWN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D184">
@@ -5512,31 +7708,43 @@
       <c r="E184">
         <v>0</v>
       </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>h</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/uganda/</t>
+          <t>https://erlassjahr.de/laenderinfos/taiwan/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Tansania</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D185">
@@ -5545,31 +7753,43 @@
       <c r="E185">
         <v>0</v>
       </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/ukraine/</t>
+          <t>https://erlassjahr.de/laenderinfos/tansania/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D186">
@@ -5578,44 +7798,91 @@
       <c r="E186">
         <v>0</v>
       </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>l</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/uruguay/</t>
+          <t>https://erlassjahr.de/laenderinfos/uganda/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vereinigte Staaten</t>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ukraine/</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Usbekistan</t>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D188">
@@ -5624,59 +7891,68 @@
       <c r="E188">
         <v>0</v>
       </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/usbekistan/</t>
+          <t>https://erlassjahr.de/laenderinfos/uruguay/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>St. Vincent und die Grenadinen</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Vereinigte Staaten</t>
         </is>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W189" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/st-vincent/</t>
-        </is>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Usbekistan</t>
         </is>
       </c>
       <c r="D190">
@@ -5685,31 +7961,38 @@
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/venezuela/</t>
+          <t>https://erlassjahr.de/laenderinfos/usbekistan/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>St. Vincent und die Grenadinen</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D191">
@@ -5718,31 +8001,43 @@
       <c r="E191">
         <v>0</v>
       </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/vietnam/</t>
+          <t>https://erlassjahr.de/laenderinfos/st-vincent/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D192">
@@ -5751,26 +8046,38 @@
       <c r="E192">
         <v>0</v>
       </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>lm</t>
+          <t>um</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/vanuatu/</t>
+          <t>https://erlassjahr.de/laenderinfos/venezuela/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5784,31 +8091,43 @@
       <c r="E193">
         <v>0</v>
       </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/samoa/</t>
+          <t>https://erlassjahr.de/laenderinfos/vietnam/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jemen</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D194">
@@ -5817,6 +8136,18 @@
       <c r="E194">
         <v>0</v>
       </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>lm</t>
@@ -5824,24 +8155,24 @@
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/jemen/</t>
+          <t>https://erlassjahr.de/laenderinfos/vanuatu/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Südafrika</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D195">
@@ -5850,6 +8181,18 @@
       <c r="E195">
         <v>0</v>
       </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>um</t>
@@ -5857,24 +8200,24 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/suedafrika/</t>
+          <t>https://erlassjahr.de/laenderinfos/samoa/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sambia</t>
+          <t>Jemen</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D196">
@@ -5883,6 +8226,21 @@
       <c r="E196">
         <v>0</v>
       </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>lm</t>
@@ -5890,38 +8248,143 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>https://erlassjahr.de/laenderinfos/sambia/</t>
+          <t>https://erlassjahr.de/laenderinfos/jemen/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Südafrika</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
+        </is>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/suedafrika/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Sambia</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
+        </is>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sambia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
           <t>ZWE</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Simbabwe</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Subsahara-Afrika</t>
         </is>
       </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="K197" t="inlineStr">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>3</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W197" t="inlineStr">
+      <c r="W199" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/simbabwe/</t>
         </is>

--- a/schuldenreport_vorlage.xlsx
+++ b/schuldenreport_vorlage.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,62 +415,87 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>oeffentliche_schulden_bip</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>oeffentliche_schulden_bip_indicator</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>trend_oe_schulden_bip</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>oeffentliche_schulden_staatseinnahmen</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>oeffentliche_schulden_staatseinnahmen_indicator</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>trend_oe_schulden_staat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>auslandsschulden_bip</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>auslandsschulden_bip_indicator</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>trend_ausl_bip</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>auslandsschuldenstand_exporteinnahmen</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>auslandsschuldenstand_exporteinnahmen_indicator</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>trend_aus_schuldenstand_export</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>auslandsschuldendienst_exporteinnahmen</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>auslandsschuldendienst_exporteinnahmen_indicator</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>trend_ausl_schuldendienst_export</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>iwf_einschaetzung</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
         </is>
       </c>
     </row>
@@ -503,6 +528,11 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aruba/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -543,10 +573,13 @@
           <t>l</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/afghanistan/</t>
         </is>
+      </c>
+      <c r="P3">
+        <v>13.3710182381595</v>
       </c>
     </row>
     <row r="4">
@@ -588,10 +621,19 @@
           <t>lm</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/angola/</t>
         </is>
+      </c>
+      <c r="P4">
+        <v>53.9982631116899</v>
+      </c>
+      <c r="V4">
+        <v>130.417804136861</v>
+      </c>
+      <c r="Y4">
+        <v>21.9368143717531</v>
       </c>
     </row>
     <row r="5">
@@ -633,10 +675,19 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/albanien/</t>
         </is>
+      </c>
+      <c r="P5">
+        <v>67.2442978720867</v>
+      </c>
+      <c r="V5">
+        <v>192.966205348314</v>
+      </c>
+      <c r="Y5">
+        <v>20.7054623853471</v>
       </c>
     </row>
     <row r="6">
@@ -668,6 +719,11 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/vereinigte-arabische-emirate/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -711,10 +767,19 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/argentinien/</t>
         </is>
+      </c>
+      <c r="P7">
+        <v>56.1328407921298</v>
+      </c>
+      <c r="V7">
+        <v>339.452807522191</v>
+      </c>
+      <c r="Y7">
+        <v>45.0412274988796</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +821,42 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/armenien/</t>
         </is>
+      </c>
+      <c r="P8">
+        <v>87.48378417932039</v>
+      </c>
+      <c r="V8">
+        <v>196.39923062718</v>
+      </c>
+      <c r="Y8">
+        <v>29.9302568037772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ATA</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Antarktis</t>
+          <t>Antigua und Barbuda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -789,23 +868,28 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/antigua-barbuda/</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antigua und Barbuda</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Aserbaidschan</t>
         </is>
       </c>
       <c r="D10">
@@ -824,32 +908,41 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/antigua-barbuda/</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aserbaidschan/</t>
+        </is>
+      </c>
+      <c r="P10">
+        <v>36.4482857592214</v>
+      </c>
+      <c r="V10">
+        <v>59.7897856605575</v>
+      </c>
+      <c r="Y10">
+        <v>10.5357601001619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BDI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Australien</t>
+          <t>Burundi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -865,21 +958,39 @@
       </c>
       <c r="I11">
         <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/burundi/</t>
+        </is>
+      </c>
+      <c r="P11">
+        <v>19.1616515813544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Österreich</t>
+          <t>Benin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -894,18 +1005,42 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/benin/</t>
+        </is>
+      </c>
+      <c r="P12">
+        <v>35.9110358918796</v>
+      </c>
+      <c r="V12">
+        <v>133.846450943184</v>
+      </c>
+      <c r="Y12">
+        <v>7.77227663946976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aserbaidschan</t>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D13">
@@ -915,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -924,23 +1059,36 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/burkina-faso/</t>
+        </is>
+      </c>
+      <c r="P13">
+        <v>23.4197375052073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Bangladesch</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D14">
@@ -953,38 +1101,52 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/burundi/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bangladesch/</t>
+        </is>
+      </c>
+      <c r="P14">
+        <v>18.1920685492981</v>
+      </c>
+      <c r="V14">
+        <v>117.650392406303</v>
+      </c>
+      <c r="Y14">
+        <v>6.33414913186766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Belgien</t>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1000,22 +1162,32 @@
       </c>
       <c r="I15">
         <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bahrain/</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D16">
@@ -1034,33 +1206,33 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/benin/</t>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bahamas/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Bosnien und Herzegowina</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D17">
@@ -1070,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1079,33 +1251,42 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/burkina-faso/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bosnien-herzigowina/</t>
+        </is>
+      </c>
+      <c r="P17">
+        <v>80.408144763545</v>
+      </c>
+      <c r="V17">
+        <v>180.882393011189</v>
+      </c>
+      <c r="Y17">
+        <v>10.823142660021</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bangladesch</t>
+          <t>Weißrussland</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D18">
@@ -1118,38 +1299,52 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bangladesch/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/weissrussland/</t>
+        </is>
+      </c>
+      <c r="P18">
+        <v>67.673333098535</v>
+      </c>
+      <c r="V18">
+        <v>90.4262091549066</v>
+      </c>
+      <c r="Y18">
+        <v>13.4793114232637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bulgarien</t>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1165,22 +1360,41 @@
       </c>
       <c r="I19">
         <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/belize/</t>
+        </is>
+      </c>
+      <c r="P19">
+        <v>76.776052355064</v>
+      </c>
+      <c r="V19">
+        <v>126.98086885936</v>
+      </c>
+      <c r="Y19">
+        <v>10.1422716472372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bolivien</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D20">
@@ -1203,24 +1417,33 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bahrain/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bolivien/</t>
+        </is>
+      </c>
+      <c r="P20">
+        <v>33.7809573784759</v>
+      </c>
+      <c r="V20">
+        <v>126.150338357488</v>
+      </c>
+      <c r="Y20">
+        <v>9.56755209749484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Brasilien</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1241,36 +1464,45 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bahamas/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/brasilien/</t>
+        </is>
+      </c>
+      <c r="P21">
+        <v>30.3131702615812</v>
+      </c>
+      <c r="V21">
+        <v>185.625743192906</v>
+      </c>
+      <c r="Y21">
+        <v>31.7447689220221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bosnien und Herzegowina</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D22">
@@ -1293,29 +1525,24 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bosnien-herzigowina/</t>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/barbados/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Weißrussland</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D23">
@@ -1336,31 +1563,26 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/weissrussland/</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/brunei-darussalam/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D24">
@@ -1383,29 +1605,33 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/belize/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/bhutan/</t>
+        </is>
+      </c>
+      <c r="P24">
+        <v>109.24230078194</v>
+      </c>
+      <c r="V24">
+        <v>313.144097994016</v>
+      </c>
+      <c r="Y24">
+        <v>10.7368669697054</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bolivien</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="D25">
@@ -1426,31 +1652,35 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bolivien/</t>
-        </is>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/botswana/</t>
+        </is>
+      </c>
+      <c r="P25">
+        <v>9.71543238275261</v>
+      </c>
+      <c r="V25">
+        <v>23.0277523471414</v>
+      </c>
+      <c r="Y25">
+        <v>2.41318268344022</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Brasilien</t>
+          <t>Zentralafrikanische Republik</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D26">
@@ -1463,39 +1693,42 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/brasilien/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/zentralafrikanische-republik/</t>
+        </is>
+      </c>
+      <c r="P26">
+        <v>32.6503520649628</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D27">
@@ -1511,31 +1744,45 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/barbados/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/china/</t>
+        </is>
+      </c>
+      <c r="P27">
+        <v>14.4746403578856</v>
+      </c>
+      <c r="V27">
+        <v>67.9982349201363</v>
+      </c>
+      <c r="Y27">
+        <v>8.16228026160106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Elfenbeinküste</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D28">
@@ -1555,22 +1802,35 @@
       </c>
       <c r="I28">
         <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/cote-divoire/</t>
+        </is>
+      </c>
+      <c r="P28">
+        <v>37.919094689683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Kamerun</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D29">
@@ -1589,28 +1849,36 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/bhutan/</t>
-        </is>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kamerun/</t>
+        </is>
+      </c>
+      <c r="P29">
+        <v>28.7368244926717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Demokratische Republik Kongo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D30">
@@ -1623,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1631,21 +1899,35 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/aserbaidschan/</t>
-        </is>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kongo-d-r/</t>
+        </is>
+      </c>
+      <c r="P30">
+        <v>10.941272673229</v>
+      </c>
+      <c r="V30">
+        <v>30.8506746939887</v>
+      </c>
+      <c r="Y30">
+        <v>2.36689965839882</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zentralafrikanische Republik</t>
+          <t>Kongo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1660,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1671,30 +1953,41 @@
       <c r="I31">
         <v>0</v>
       </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/zentralafrikanische-republik/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/republik-kongo/</t>
+        </is>
+      </c>
+      <c r="P31">
+        <v>51.1260244852748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>Kolumbien</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1706,25 +1999,49 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kolumbien/</t>
+        </is>
+      </c>
+      <c r="P32">
+        <v>42.2893607790469</v>
+      </c>
+      <c r="V32">
+        <v>224.9055647153</v>
+      </c>
+      <c r="Y32">
+        <v>40.776397257761</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>COM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Schweiz</t>
+          <t>Komoren</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1733,28 +2050,46 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/komoren/</t>
+        </is>
+      </c>
+      <c r="P33">
+        <v>16.4622672631826</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Cabo Verde</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1769,23 +2104,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/cabo-verde/</t>
+        </is>
+      </c>
+      <c r="P34">
+        <v>89.2950522371704</v>
+      </c>
+      <c r="V34">
+        <v>173.62276520708</v>
+      </c>
+      <c r="Y34">
+        <v>5.56544986658127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D35">
@@ -1801,31 +2155,40 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>um</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/china/</t>
-        </is>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/costa-rica/</t>
+        </is>
+      </c>
+      <c r="P35">
+        <v>48.9821595775894</v>
+      </c>
+      <c r="V35">
+        <v>131.553043679392</v>
+      </c>
+      <c r="Y35">
+        <v>18.3464023215334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Elfenbeinküste</t>
+          <t>Dschibuti</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1846,36 +2209,39 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/elfenbeinkueste/</t>
-        </is>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dschibuti/</t>
+        </is>
+      </c>
+      <c r="P36">
+        <v>157.609868785925</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>DMA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kamerun</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D37">
@@ -1894,33 +2260,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kamerun/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dominica/</t>
+        </is>
+      </c>
+      <c r="P37">
+        <v>55.2828299512162</v>
+      </c>
+      <c r="V37">
+        <v>161.811884648032</v>
+      </c>
+      <c r="Y37">
+        <v>16.5426499309394</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Demokratische Republik Kongo</t>
+          <t>Dominikanische Republik</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D38">
@@ -1933,39 +2308,43 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kongo-d-r/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/dominikanische-republik/</t>
+        </is>
+      </c>
+      <c r="P38">
+        <v>43.7747403264261</v>
+      </c>
+      <c r="V38">
+        <v>163.846606053196</v>
+      </c>
+      <c r="Y38">
+        <v>15.0737999913015</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kongo</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Algerien</t>
         </is>
       </c>
       <c r="D39">
@@ -1975,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1986,29 +2365,30 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/republik-kongo/</t>
-        </is>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/algerien/</t>
+        </is>
+      </c>
+      <c r="P39">
+        <v>3.21626737502647</v>
+      </c>
+      <c r="V39">
+        <v>12.4954526258206</v>
+      </c>
+      <c r="Y39">
+        <v>0.475166300656455</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kolumbien</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2039,26 +2419,35 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kolumbien/</t>
-        </is>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ecuador/</t>
+        </is>
+      </c>
+      <c r="P40">
+        <v>42.629537303626</v>
+      </c>
+      <c r="V40">
+        <v>180.796081318046</v>
+      </c>
+      <c r="Y40">
+        <v>36.651932419576</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Komoren</t>
+          <t>Ägypten</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D41">
@@ -2071,34 +2460,43 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/komoren/</t>
-        </is>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aegypten/</t>
+        </is>
+      </c>
+      <c r="P41">
+        <v>40.3509708465965</v>
+      </c>
+      <c r="V41">
+        <v>187.905017456375</v>
+      </c>
+      <c r="Y41">
+        <v>15.003804629167</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2116,39 +2514,42 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/cabo-verde/</t>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/eritrea/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Äthiopien</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D43">
@@ -2161,41 +2562,44 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/costa-rica/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aethiopien/</t>
+        </is>
+      </c>
+      <c r="P43">
+        <v>33.4427442807902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kuba</t>
+          <t>Fidschi</t>
         </is>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2209,23 +2613,39 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/fidschi/</t>
+        </is>
+      </c>
+      <c r="P44">
+        <v>16.6895240143587</v>
+      </c>
+      <c r="V44">
+        <v>31.2883655436519</v>
+      </c>
+      <c r="Y44">
+        <v>1.95037776081226</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Zypern</t>
+          <t>Mikronesien</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2234,34 +2654,49 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mikronesien/</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tschechische Republik</t>
+          <t>Gabun</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2271,21 +2706,39 @@
       </c>
       <c r="I46">
         <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/gabun/</t>
+        </is>
+      </c>
+      <c r="P46">
+        <v>42.9696360701758</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Georgien</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2301,17 +2754,36 @@
       </c>
       <c r="I47">
         <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/georgien/</t>
+        </is>
+      </c>
+      <c r="P47">
+        <v>110.633636670343</v>
+      </c>
+      <c r="V47">
+        <v>168.192566618269</v>
+      </c>
+      <c r="Y47">
+        <v>23.6773063389183</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dschibuti</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2332,36 +2804,39 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/dschibuti/</t>
-        </is>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ghana/</t>
+        </is>
+      </c>
+      <c r="P48">
+        <v>36.2780555360464</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D49">
@@ -2374,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2384,28 +2859,42 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/dominica/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guinea/</t>
+        </is>
+      </c>
+      <c r="P49">
+        <v>24.6316371624954</v>
+      </c>
+      <c r="V49">
+        <v>61.5514396349426</v>
+      </c>
+      <c r="Y49">
+        <v>2.16425187082287</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dänemark</t>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2420,23 +2909,39 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/gambia/</t>
+        </is>
+      </c>
+      <c r="P50">
+        <v>42.70920581876</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dominikanische Republik</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D51">
@@ -2449,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2459,24 +2964,27 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/dominikanische-republik/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guinea-bissau/</t>
+        </is>
+      </c>
+      <c r="P51">
+        <v>28.8926755761755</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Algerien</t>
+          <t>Äquatorialguinea</t>
         </is>
       </c>
       <c r="D52">
@@ -2497,21 +3005,21 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/algerien/</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/aequatorialguinea/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2532,36 +3040,43 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>um</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/ecuador/</t>
-        </is>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/grenada/</t>
+        </is>
+      </c>
+      <c r="P53">
+        <v>58.8314867023694</v>
+      </c>
+      <c r="V53">
+        <v>97.440561550738</v>
+      </c>
+      <c r="Y53">
+        <v>8.44204338959787</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>GRL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ägypten</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Grönland</t>
         </is>
       </c>
       <c r="D54">
@@ -2582,31 +3097,26 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/aegypten/</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/groenland/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D55">
@@ -2619,41 +3129,52 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/eritrea/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guatemala/</t>
+        </is>
+      </c>
+      <c r="P55">
+        <v>28.9679821550122</v>
+      </c>
+      <c r="V55">
+        <v>150.863210971452</v>
+      </c>
+      <c r="Y55">
+        <v>26.7265237385159</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Spanien</t>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2668,22 +3189,40 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/guyana/</t>
+        </is>
+      </c>
+      <c r="P56">
+        <v>44.5749306276022</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Estland</t>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2698,23 +3237,42 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/honduras/</t>
+        </is>
+      </c>
+      <c r="P57">
+        <v>43.7291003665765</v>
+      </c>
+      <c r="V57">
+        <v>130.211949206491</v>
+      </c>
+      <c r="Y57">
+        <v>28.1328682763261</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Äthiopien</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D58">
@@ -2733,32 +3291,46 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/aethiopien/</t>
-        </is>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/haiti/</t>
+        </is>
+      </c>
+      <c r="P58">
+        <v>22.7871457590823</v>
+      </c>
+      <c r="V58">
+        <v>119.703037270192</v>
+      </c>
+      <c r="Y58">
+        <v>1.16750257149722</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Finnland</t>
+          <t>Indonesien</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2774,17 +3346,41 @@
       </c>
       <c r="I59">
         <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/indonesien/</t>
+        </is>
+      </c>
+      <c r="P59">
+        <v>37.5955780964589</v>
+      </c>
+      <c r="V59">
+        <v>174.154589059192</v>
+      </c>
+      <c r="Y59">
+        <v>26.0036595148928</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fidschi</t>
+          <t>Indien</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D60">
@@ -2805,56 +3401,86 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/fidschi/</t>
-        </is>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/indien/</t>
+        </is>
+      </c>
+      <c r="P60">
+        <v>19.320652206667</v>
+      </c>
+      <c r="V60">
+        <v>93.0702961310147</v>
+      </c>
+      <c r="Y60">
+        <v>11.3615607742689</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Frankreich</t>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/iran/</t>
+        </is>
+      </c>
+      <c r="V61">
+        <v>5.31980969067274</v>
+      </c>
+      <c r="Y61">
+        <v>0.796710259930464</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mikronesien</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Irak</t>
         </is>
       </c>
       <c r="D62">
@@ -2867,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2875,31 +3501,29 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mikronesien/</t>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/irak/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gabun</t>
+          <t>Jamaika</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D63">
@@ -2909,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2918,32 +3542,46 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>um</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/gabun/</t>
-        </is>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jamaika/</t>
+        </is>
+      </c>
+      <c r="P63">
+        <v>108.009571795896</v>
+      </c>
+      <c r="V63">
+        <v>268.2211786147</v>
+      </c>
+      <c r="Y63">
+        <v>20.4386024741289</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Großbritannien</t>
+          <t>Jordanien</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2955,21 +3593,40 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jordanien/</t>
+        </is>
+      </c>
+      <c r="P64">
+        <v>76.1313061615844</v>
+      </c>
+      <c r="V64">
+        <v>199.140523659989</v>
+      </c>
+      <c r="Y64">
+        <v>14.0675261661196</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Georgien</t>
+          <t>Kasachstan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2984,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3000,21 +3657,30 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/georgien/</t>
-        </is>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kasachstan/</t>
+        </is>
+      </c>
+      <c r="P65">
+        <v>105.705114733735</v>
+      </c>
+      <c r="V65">
+        <v>225.7319029822</v>
+      </c>
+      <c r="Y65">
+        <v>48.3366579372778</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Kenia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3045,26 +3711,35 @@
           <t>lm</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/ghana/</t>
-        </is>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kenia/</t>
+        </is>
+      </c>
+      <c r="P66">
+        <v>36.1448424523764</v>
+      </c>
+      <c r="V66">
+        <v>256.145168829746</v>
+      </c>
+      <c r="Y66">
+        <v>22.6042603557414</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Kirgisistan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D67">
@@ -3077,39 +3752,48 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/guinea/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kirgisistan/</t>
+        </is>
+      </c>
+      <c r="P67">
+        <v>102.979217742137</v>
+      </c>
+      <c r="V67">
+        <v>307.339420850415</v>
+      </c>
+      <c r="Y67">
+        <v>31.2669721576883</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Kambodscha</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D68">
@@ -3131,33 +3815,42 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/gambia/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kambodscha/</t>
+        </is>
+      </c>
+      <c r="P68">
+        <v>58.2437552105742</v>
+      </c>
+      <c r="V68">
+        <v>70.2747052036248</v>
+      </c>
+      <c r="Y68">
+        <v>6.73341185411995</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D69">
@@ -3180,24 +3873,29 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/guinea-bissau/</t>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kiribati/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Äquatorialguinea</t>
+          <t>St. Kitts und Nevis</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D70">
@@ -3218,25 +3916,30 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/aequatorialguinea/</t>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st.-kitts-nevis/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Griechenland</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3252,22 +3955,27 @@
       </c>
       <c r="I71">
         <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/kuwait/</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Demokratische Volksrepublik Laos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D72">
@@ -3288,36 +3996,47 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/grenada/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/laos/</t>
+        </is>
+      </c>
+      <c r="P72">
+        <v>90.1818698937653</v>
+      </c>
+      <c r="V72">
+        <v>245.391871235962</v>
+      </c>
+      <c r="Y72">
+        <v>14.5799647136499</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GRL</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Grönland</t>
+          <t>Libanon</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3326,26 +4045,45 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/libanon/</t>
+        </is>
+      </c>
+      <c r="P73">
+        <v>145.109808466953</v>
+      </c>
+      <c r="V73">
+        <v>348.538422607561</v>
+      </c>
+      <c r="Y73">
+        <v>72.0805619002018</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D74">
@@ -3358,34 +4096,37 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/guatemala/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/liberia/</t>
+        </is>
+      </c>
+      <c r="P74">
+        <v>44.6629358854908</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3409,35 +4150,49 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>um</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/guyana/</t>
-        </is>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st-lucia/</t>
+        </is>
+      </c>
+      <c r="P75">
+        <v>35.1403711042027</v>
+      </c>
+      <c r="V75">
+        <v>49.12255388783</v>
+      </c>
+      <c r="Y75">
+        <v>3.89753283293971</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hongkong</t>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3446,26 +4201,40 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sri-lanka/</t>
+        </is>
+      </c>
+      <c r="P76">
+        <v>60.8467618996769</v>
+      </c>
+      <c r="V76">
+        <v>256.389405870825</v>
+      </c>
+      <c r="Y76">
+        <v>36.0241498331276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="D77">
@@ -3484,32 +4253,41 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/honduras/</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/lesotho/</t>
+        </is>
+      </c>
+      <c r="P77">
+        <v>29.224167216054</v>
+      </c>
+      <c r="V77">
+        <v>53.7706352835928</v>
+      </c>
+      <c r="Y77">
+        <v>3.5518921702091</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kroatien</t>
+          <t>Marokko</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3525,22 +4303,41 @@
       </c>
       <c r="I78">
         <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/marokko/</t>
+        </is>
+      </c>
+      <c r="P78">
+        <v>42.2367444048655</v>
+      </c>
+      <c r="V78">
+        <v>112.007590925027</v>
+      </c>
+      <c r="Y78">
+        <v>8.83274460170777</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Republik Moldau</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D79">
@@ -3553,38 +4350,52 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/haiti/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/moldau/</t>
+        </is>
+      </c>
+      <c r="P79">
+        <v>61.3142843233806</v>
+      </c>
+      <c r="V79">
+        <v>164.700579978419</v>
+      </c>
+      <c r="Y79">
+        <v>12.8888516960057</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ungarn</t>
+          <t>Madagaskar</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3600,17 +4411,36 @@
       </c>
       <c r="I80">
         <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/madagaskar/</t>
+        </is>
+      </c>
+      <c r="P80">
+        <v>31.758249314267</v>
+      </c>
+      <c r="V80">
+        <v>84.47753856104779</v>
+      </c>
+      <c r="Y80">
+        <v>2.72376144949521</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Indonesien</t>
+          <t>Malediven</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3638,29 +4468,38 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/indonesien/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/malediven/</t>
+        </is>
+      </c>
+      <c r="P81">
+        <v>47.9820916881466</v>
+      </c>
+      <c r="V81">
+        <v>63.0309820690694</v>
+      </c>
+      <c r="Y81">
+        <v>9.229937955615929</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Indien</t>
+          <t>Mexiko</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D82">
@@ -3683,28 +4522,42 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/indien/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mexiko/</t>
+        </is>
+      </c>
+      <c r="P82">
+        <v>38.0175505160015</v>
+      </c>
+      <c r="V82">
+        <v>92.0081792251562</v>
+      </c>
+      <c r="Y82">
+        <v>11.859267189787</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Irland</t>
+          <t>Marshallinseln</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3713,29 +4566,39 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/marshallinseln/</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Mazedonien</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D84">
@@ -3745,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3761,21 +4624,35 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/iran/</t>
-        </is>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mazedonien/</t>
+        </is>
+      </c>
+      <c r="P84">
+        <v>72.026875224135</v>
+      </c>
+      <c r="V84">
+        <v>112.472538297105</v>
+      </c>
+      <c r="Y84">
+        <v>16.6033772875799</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Irak</t>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D85">
@@ -3785,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3794,30 +4671,40 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/irak/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mali/</t>
+        </is>
+      </c>
+      <c r="P85">
+        <v>29.4671628149373</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>Myanmar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3826,28 +4713,52 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/myanmar/</t>
+        </is>
+      </c>
+      <c r="P86">
+        <v>21.5480396880479</v>
+      </c>
+      <c r="V86">
+        <v>87.2953199445404</v>
+      </c>
+      <c r="Y86">
+        <v>4.92495070334319</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3859,25 +4770,49 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/montenegro/</t>
+        </is>
+      </c>
+      <c r="P87">
+        <v>144.082855207686</v>
+      </c>
+      <c r="V87">
+        <v>293.925198645807</v>
+      </c>
+      <c r="Y87">
+        <v>63.7350521099409</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Italien</t>
+          <t>Mongolei</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3889,26 +4824,45 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mongolei/</t>
+        </is>
+      </c>
+      <c r="P88">
+        <v>253.872112094577</v>
+      </c>
+      <c r="V88">
+        <v>370.055304166237</v>
+      </c>
+      <c r="Y88">
+        <v>101.632327552517</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jamaika</t>
+          <t>Mosambik</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D89">
@@ -3927,33 +4881,45 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/jamaika/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mosambik/</t>
+        </is>
+      </c>
+      <c r="P89">
+        <v>107.567868996648</v>
+      </c>
+      <c r="V89">
+        <v>244.254638978209</v>
+      </c>
+      <c r="Y89">
+        <v>13.1401026187487</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jordanien</t>
+          <t>Mauretanien</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D90">
@@ -3969,35 +4935,43 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/jordanien/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mauretanien/</t>
+        </is>
+      </c>
+      <c r="P90">
+        <v>97.8360467770847</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4009,26 +4983,45 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/mauritius/</t>
+        </is>
+      </c>
+      <c r="P91">
+        <v>71.7736012306831</v>
+      </c>
+      <c r="V91">
+        <v>81.0605966165888</v>
+      </c>
+      <c r="Y91">
+        <v>23.2546698079484</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kasachstan</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D92">
@@ -4038,42 +5031,45 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kasachstan/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/malawi/</t>
+        </is>
+      </c>
+      <c r="P92">
+        <v>32.160859029393</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kenia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D93">
@@ -4096,29 +5092,29 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kenia/</t>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/malaysia/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kirgisistan</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D94">
@@ -4134,36 +5130,36 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kirgisistan/</t>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/namibia/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kambodscha</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D95">
@@ -4184,34 +5180,34 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kambodscha/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/niger/</t>
+        </is>
+      </c>
+      <c r="P95">
+        <v>36.0614977912126</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D96">
@@ -4221,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -4237,21 +5233,30 @@
           <t>lm</t>
         </is>
       </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kiribati/</t>
-        </is>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nigeria/</t>
+        </is>
+      </c>
+      <c r="P96">
+        <v>12.4152902456719</v>
+      </c>
+      <c r="V96">
+        <v>67.2287232058485</v>
+      </c>
+      <c r="Y96">
+        <v>8.282230741695759</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>St. Kitts und Nevis</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4275,32 +5280,41 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/st.-kitts-nevis/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nicaragua/</t>
+        </is>
+      </c>
+      <c r="P97">
+        <v>90.7040893227001</v>
+      </c>
+      <c r="V97">
+        <v>207.409260084266</v>
+      </c>
+      <c r="Y97">
+        <v>19.0280490011247</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Korea, Republik von</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4316,17 +5330,30 @@
       </c>
       <c r="I98">
         <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/nepal/</t>
+        </is>
+      </c>
+      <c r="P98">
+        <v>18.8612416636345</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Nauru</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D99">
@@ -4346,22 +5373,27 @@
       </c>
       <c r="I99">
         <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Demokratische Volksrepublik Laos</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D100">
@@ -4384,29 +5416,24 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/laos/</t>
+          <t>h</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Libanon</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D101">
@@ -4422,36 +5449,45 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/libanon/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/pakistan/</t>
+        </is>
+      </c>
+      <c r="P101">
+        <v>27.6395719337156</v>
+      </c>
+      <c r="V101">
+        <v>295.282845685617</v>
+      </c>
+      <c r="Y101">
+        <v>19.8830986985886</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D102">
@@ -4464,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4474,31 +5510,36 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/liberia/</t>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/panama/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Libyen</t>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4511,22 +5552,36 @@
       </c>
       <c r="I103">
         <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/peru/</t>
+        </is>
+      </c>
+      <c r="P103">
+        <v>31.2826665709878</v>
+      </c>
+      <c r="V103">
+        <v>114.742060640038</v>
+      </c>
+      <c r="Y103">
+        <v>12.1859205301045</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Philippinen</t>
         </is>
       </c>
       <c r="D104">
@@ -4547,31 +5602,30 @@
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/st-lucia/</t>
-        </is>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/philippinen/</t>
+        </is>
+      </c>
+      <c r="P104">
+        <v>19.8518554289249</v>
+      </c>
+      <c r="V104">
+        <v>77.8815526597117</v>
+      </c>
+      <c r="Y104">
+        <v>8.661286936204601</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="D105">
@@ -4587,31 +5641,31 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sri-lanka/</t>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/palau/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Papua-Neuguinea</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D106">
@@ -4630,27 +5684,46 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/lesotho/</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/papua-neuguinea/</t>
+        </is>
+      </c>
+      <c r="P106">
+        <v>78.3920677844407</v>
+      </c>
+      <c r="V106">
+        <v>166.457433073749</v>
+      </c>
+      <c r="Y106">
+        <v>26.1132091327479</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Litauen</t>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4662,25 +5735,44 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/paraguay/</t>
+        </is>
+      </c>
+      <c r="P107">
+        <v>39.8511932136653</v>
+      </c>
+      <c r="V107">
+        <v>108.164341354588</v>
+      </c>
+      <c r="Y107">
+        <v>15.6566881312695</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Luxemburg</t>
+          <t>Katar</t>
         </is>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4696,21 +5788,26 @@
       </c>
       <c r="I108">
         <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/katar/</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lettland</t>
+          <t>Russische Föderation</t>
         </is>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4726,24 +5823,43 @@
       </c>
       <c r="I109">
         <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/russische-foederation/</t>
+        </is>
+      </c>
+      <c r="P109">
+        <v>28.0860272466329</v>
+      </c>
+      <c r="V109">
+        <v>80.9859716610721</v>
+      </c>
+      <c r="Y109">
+        <v>19.5970793241923</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>Ruanda</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4756,22 +5872,36 @@
       </c>
       <c r="I110">
         <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ruanda/</t>
+        </is>
+      </c>
+      <c r="P110">
+        <v>58.0433426576445</v>
+      </c>
+      <c r="V110">
+        <v>262.552008691796</v>
+      </c>
+      <c r="Y110">
+        <v>12.6093588806293</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Marokko</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Saudi Arabien</t>
         </is>
       </c>
       <c r="D111">
@@ -4792,31 +5922,26 @@
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/marokko/</t>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/saudi-arabien/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Republik Moldau</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D112">
@@ -4829,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4837,26 +5962,38 @@
       <c r="I112">
         <v>0</v>
       </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/moldau/</t>
-        </is>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sudan/</t>
+        </is>
+      </c>
+      <c r="P112">
+        <v>56.9070300846564</v>
+      </c>
+      <c r="V112">
+        <v>421.562633680834</v>
+      </c>
+      <c r="Y112">
+        <v>4.2087068459389</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Madagaskar</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4884,24 +6021,27 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/madagaskar/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/senegal/</t>
+        </is>
+      </c>
+      <c r="P113">
+        <v>52.3707752220726</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Malediven</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4929,29 +6069,19 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/malediven/</t>
+          <t>h</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mexiko</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Salomon-Inseln</t>
         </is>
       </c>
       <c r="D115">
@@ -4972,31 +6102,35 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mexiko/</t>
-        </is>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/salomonen/</t>
+        </is>
+      </c>
+      <c r="P115">
+        <v>29.0778855112059</v>
+      </c>
+      <c r="V115">
+        <v>53.83289965556</v>
+      </c>
+      <c r="Y115">
+        <v>5.61068075448384</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Marshallinseln</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D116">
@@ -5009,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5019,29 +6153,32 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/marshallinseln/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sierra-leone/</t>
+        </is>
+      </c>
+      <c r="P116">
+        <v>45.0946376114351</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Mazedonien</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D117">
@@ -5057,36 +6194,45 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mazedonien/</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/el-salvador/</t>
+        </is>
+      </c>
+      <c r="P117">
+        <v>71.1250256512361</v>
+      </c>
+      <c r="V117">
+        <v>225.354450637101</v>
+      </c>
+      <c r="Y117">
+        <v>45.8093167294584</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Serbien</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D118">
@@ -5096,41 +6242,55 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mali/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/serbien/</t>
+        </is>
+      </c>
+      <c r="P118">
+        <v>71.6841195855735</v>
+      </c>
+      <c r="V118">
+        <v>133.522133172361</v>
+      </c>
+      <c r="Y118">
+        <v>22.2813572458206</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Südsudan</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5139,29 +6299,39 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/suedsudan/</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Sao Tome und Principe</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D120">
@@ -5174,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5182,31 +6352,43 @@
       <c r="I120">
         <v>0</v>
       </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/myanmar/</t>
-        </is>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sao-tome-principe/</t>
+        </is>
+      </c>
+      <c r="P120">
+        <v>58.7704453169697</v>
+      </c>
+      <c r="V120">
+        <v>242.874698722373</v>
+      </c>
+      <c r="Y120">
+        <v>4.51928817959019</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Surinam</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Europa, GUS</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D121">
@@ -5216,13 +6398,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5232,26 +6414,21 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/montenegro/</t>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/surinam/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Mongolei</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Swasiland</t>
         </is>
       </c>
       <c r="D122">
@@ -5267,31 +6444,35 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mongolei/</t>
-        </is>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/swasiland/</t>
+        </is>
+      </c>
+      <c r="P122">
+        <v>10.866545128511</v>
+      </c>
+      <c r="V122">
+        <v>24.8012455528797</v>
+      </c>
+      <c r="Y122">
+        <v>2.25026537611008</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Mosambik</t>
+          <t>Seychellen</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5317,29 +6498,26 @@
       <c r="I123">
         <v>0</v>
       </c>
-      <c r="J123">
-        <v>2</v>
-      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mosambik/</t>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/seychellen/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mauretanien</t>
+          <t>Tschad</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5354,37 +6532,40 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mauretanien/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tschad/</t>
+        </is>
+      </c>
+      <c r="P124">
+        <v>29.2910166151758</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5405,36 +6586,34 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W125" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/mauritius/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/togo/</t>
+        </is>
+      </c>
+      <c r="P125">
+        <v>33.2655210429803</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Malawi</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D126">
@@ -5455,31 +6634,35 @@
       <c r="I126">
         <v>0</v>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/malawi/</t>
-        </is>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/thailand/</t>
+        </is>
+      </c>
+      <c r="P126">
+        <v>35.0891180739787</v>
+      </c>
+      <c r="V126">
+        <v>49.0076362847685</v>
+      </c>
+      <c r="Y126">
+        <v>5.36647940548434</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Tadschikistan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D127">
@@ -5492,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5502,29 +6685,38 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W127" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/malaysia/</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tadschikistan/</t>
+        </is>
+      </c>
+      <c r="P127">
+        <v>67.65100803501019</v>
+      </c>
+      <c r="V127">
+        <v>224.616422448376</v>
+      </c>
+      <c r="Y127">
+        <v>22.0086342095868</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D128">
@@ -5534,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5550,26 +6742,19 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W128" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/namibia/</t>
-        </is>
+      <c r="P128">
+        <v>2.32385283615489</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="D129">
@@ -5588,33 +6773,37 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W129" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/niger/</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ost-timor/</t>
+        </is>
+      </c>
+      <c r="P129">
+        <v>6.69447085980517</v>
+      </c>
+      <c r="V129">
+        <v>15.6788108681304</v>
+      </c>
+      <c r="Y129">
+        <v>0.317026611161799</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Subsahara-Afrika</t>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D130">
@@ -5624,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -5637,29 +6826,33 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W130" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/nigeria/</t>
-        </is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tonga/</t>
+        </is>
+      </c>
+      <c r="P130">
+        <v>41.2710411552442</v>
+      </c>
+      <c r="V130">
+        <v>122.505390913934</v>
+      </c>
+      <c r="Y130">
+        <v>7.2261606422008</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Trinidad und Tobago</t>
         </is>
       </c>
       <c r="D131">
@@ -5678,32 +6871,32 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W131" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/nicaragua/</t>
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/trinidad-tobago/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Niederlande</t>
+          <t>Tunesien</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5719,21 +6912,45 @@
       </c>
       <c r="I132">
         <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tunesien/</t>
+        </is>
+      </c>
+      <c r="P132">
+        <v>90.0340253005548</v>
+      </c>
+      <c r="V132">
+        <v>173.8123444461</v>
+      </c>
+      <c r="Y132">
+        <v>13.9785692400923</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Norwegen</t>
+          <t>Türkei</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5745,21 +6962,45 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tuerkei/</t>
+        </is>
+      </c>
+      <c r="P133">
+        <v>58.9734270310309</v>
+      </c>
+      <c r="V133">
+        <v>193.893668918455</v>
+      </c>
+      <c r="Y133">
+        <v>36.6591490156765</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Tuvalu</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D134">
@@ -5772,34 +7013,39 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
-      <c r="W134" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/nepal/</t>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tuvalu/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Tansania</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D135">
@@ -5822,23 +7068,36 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/tansania/</t>
+        </is>
+      </c>
+      <c r="P135">
+        <v>33.0631797553617</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Neuseeland</t>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5854,22 +7113,41 @@
       </c>
       <c r="I136">
         <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/uganda/</t>
+        </is>
+      </c>
+      <c r="P136">
+        <v>46.3417991856656</v>
+      </c>
+      <c r="V136">
+        <v>218.205331246364</v>
+      </c>
+      <c r="Y136">
+        <v>12.2466894514859</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Nordafrika, Naher Osten</t>
+          <t>Europa, GUS</t>
         </is>
       </c>
       <c r="D137">
@@ -5890,26 +7168,43 @@
       <c r="I137">
         <v>0</v>
       </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/ukraine/</t>
+        </is>
+      </c>
+      <c r="P137">
+        <v>89.62760585387019</v>
+      </c>
+      <c r="V137">
+        <v>161.336552111106</v>
+      </c>
+      <c r="Y137">
+        <v>20.6770709525621</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Südasien, Südostasien, Pazifik</t>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D138">
@@ -5928,33 +7223,28 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W138" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/pakistan/</t>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/uruguay/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Usbekistan</t>
         </is>
       </c>
       <c r="D139">
@@ -5975,26 +7265,30 @@
       <c r="I139">
         <v>0</v>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W139" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/panama/</t>
-        </is>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/usbekistan/</t>
+        </is>
+      </c>
+      <c r="P139">
+        <v>33.8885291205438</v>
+      </c>
+      <c r="V139">
+        <v>101.810321014165</v>
+      </c>
+      <c r="Y139">
+        <v>5.79329340644889</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>St. Vincent und die Grenadinen</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6025,21 +7319,35 @@
           <t>um</t>
         </is>
       </c>
-      <c r="W140" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/peru/</t>
-        </is>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/st-vincent/</t>
+        </is>
+      </c>
+      <c r="P140">
+        <v>37.5927362323899</v>
+      </c>
+      <c r="V140">
+        <v>101.626438136048</v>
+      </c>
+      <c r="Y140">
+        <v>12.2928522878788</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Philippinen</t>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Lateinamerika, Karibik</t>
         </is>
       </c>
       <c r="D141">
@@ -6049,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6060,21 +7368,34 @@
       <c r="I141">
         <v>0</v>
       </c>
-      <c r="W141" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/philippinen/</t>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/venezuela/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D142">
@@ -6094,17 +7415,36 @@
       </c>
       <c r="I142">
         <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/vietnam/</t>
+        </is>
+      </c>
+      <c r="P142">
+        <v>46.6986420295942</v>
+      </c>
+      <c r="V142">
+        <v>41.5575904849065</v>
+      </c>
+      <c r="Y142">
+        <v>7.0863018405533</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Papua-Neuguinea</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6135,25 +7475,33 @@
           <t>lm</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/papua-neuguinea/</t>
-        </is>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/vanuatu/</t>
+        </is>
+      </c>
+      <c r="P143">
+        <v>45.9482866496179</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Polen</t>
+          <t>Samoa</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Südasien, Südostasien, Pazifik</t>
         </is>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6169,54 +7517,99 @@
       </c>
       <c r="I144">
         <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/samoa/</t>
+        </is>
+      </c>
+      <c r="P144">
+        <v>51.3447975052315</v>
+      </c>
+      <c r="V144">
+        <v>137.204358163977</v>
+      </c>
+      <c r="Y144">
+        <v>9.76860800604403</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Jemen</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Nordafrika, Naher Osten</t>
         </is>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/jemen/</t>
+        </is>
+      </c>
+      <c r="P145">
+        <v>26.1452326638193</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Korea, Demokratische Volksrepublik</t>
+          <t>Südafrika</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6230,29 +7623,50 @@
       <c r="I146">
         <v>0</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/suedafrika/</t>
+        </is>
+      </c>
+      <c r="P146">
+        <v>50.5569118799626</v>
+      </c>
+      <c r="V146">
+        <v>152.82667744689</v>
+      </c>
+      <c r="Y146">
+        <v>19.9299392843026</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sambia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6262,22 +7676,41 @@
       </c>
       <c r="I147">
         <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>https://erlassjahr.de/laenderinfos/sambia/</t>
+        </is>
+      </c>
+      <c r="P147">
+        <v>73.6567234619455</v>
+      </c>
+      <c r="V147">
+        <v>190.965968675546</v>
+      </c>
+      <c r="Y147">
+        <v>14.6105343329914</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Simbabwe</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Lateinamerika, Karibik</t>
+          <t>Subsahara-Afrika</t>
         </is>
       </c>
       <c r="D148">
@@ -6290,2104 +7723,35 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W148" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/paraguay/</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>QAT</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Katar</t>
-        </is>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>RKS</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Kosovo</t>
-        </is>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="W150" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/kosovo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>ROU</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Rumänien</t>
-        </is>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Russische Föderation</t>
-        </is>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>RWA</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Ruanda</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W153" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/ruanda/</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SAU</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Saudi Arabien</t>
-        </is>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SDN</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
           <t>lm</t>
         </is>
       </c>
-      <c r="W155" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sudan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W156" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/senegal/</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SGP</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Singapur</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SLB</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Salomon-Inseln</t>
-        </is>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="W158" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/salomonen/</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SLE</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W159" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sierra-leone/</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SLV</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
-        </is>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W160" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/el-salvador/</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SMR</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>San Marino</t>
-        </is>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SOM</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Somalia</t>
-        </is>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>3</v>
-      </c>
-      <c r="W162" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/somalia/</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SRB</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Serbien</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
-        </is>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W163" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/serbien/</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SSD</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Südsudan</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W164" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/suedsudan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>STP</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Sao Tome und Principe</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W165" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sao-tome-principe/</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SUR</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Surinam</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
-        </is>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W166" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/surinam/</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Slowakei</t>
-        </is>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SVN</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Slowenien</t>
-        </is>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SWE</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Schweden</t>
-        </is>
-      </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SWZ</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Swasiland</t>
-        </is>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="W170" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/swasiland/</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SYC</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Seychellen</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W171" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/seychellen/</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SYR</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Syrische Arabische Republik</t>
-        </is>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>3</v>
-      </c>
-      <c r="W172" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/syrien/</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>TCD</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Tschad</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W173" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tschad/</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>TGO</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W174" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/togo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>THA</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="W175" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/thailand/</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Tadschikistan</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
-        </is>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W176" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tadschikistan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Turkmenistan</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
-        </is>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>TLS</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="W178" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/ost-timor/</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W179" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tonga/</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>TTO</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Trinidad und Tobago</t>
-        </is>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="W180" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/trinidad-tobago/</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>TUN</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Tunesien</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
-        </is>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W181" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tunesien/</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>TUR</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Türkei</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
-        </is>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W182" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tuerkei/</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>TUV</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Tuvalu</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W183" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tuvalu/</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>TWN</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W184" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/taiwan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>TZA</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Tansania</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W185" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/tansania/</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="W186" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/uganda/</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Europa, GUS</t>
-        </is>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W187" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/ukraine/</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>URY</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
-        </is>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="W188" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/uruguay/</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Vereinigte Staaten</t>
-        </is>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Usbekistan</t>
-        </is>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="W190" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/usbekistan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>VCT</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>St. Vincent und die Grenadinen</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
-        </is>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W191" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/st-vincent/</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>VEN</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Lateinamerika, Karibik</t>
-        </is>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W192" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/venezuela/</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>VNM</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W193" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/vietnam/</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W194" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/vanuatu/</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>WSM</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Samoa</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Südasien, Südostasien, Pazifik</t>
-        </is>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W195" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/samoa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Jemen</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Nordafrika, Naher Osten</t>
-        </is>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W196" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/jemen/</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Südafrika</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="W197" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/suedafrika/</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Sambia</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W198" t="inlineStr">
-        <is>
-          <t>https://erlassjahr.de/laenderinfos/sambia/</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Simbabwe</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Subsahara-Afrika</t>
-        </is>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="W199" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>https://erlassjahr.de/laenderinfos/simbabwe/</t>
         </is>
+      </c>
+      <c r="P148">
+        <v>39.8075245401731</v>
+      </c>
+      <c r="V148">
+        <v>238.61476381357</v>
+      </c>
+      <c r="Y148">
+        <v>11.7075037497202</v>
       </c>
     </row>
   </sheetData>
